--- a/gd/道具系统/商店系统设计.xlsx
+++ b/gd/道具系统/商店系统设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,21 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_1_若钻石不足_弹出钻石充值二级确认框">'逻辑+UI'!$I$224</definedName>
+    <definedName name="_1_若钻石不足_弹出钻石充值二级确认框">'逻辑+UI'!$I$226</definedName>
     <definedName name="_3、功能界面">#REF!</definedName>
     <definedName name="_4、录音模式">#REF!</definedName>
     <definedName name="_5_、功能按钮">#REF!</definedName>
+    <definedName name="苹果充值流程">'逻辑+UI'!$A$481</definedName>
     <definedName name="五、提示信息">[1]美术需求!#REF!</definedName>
     <definedName name="显示格式">#REF!</definedName>
     <definedName name="长按才能录音_松手后直接发送录音内容。">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="425">
   <si>
     <t>文档名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1313,10 +1314,6 @@
   </si>
   <si>
     <t>当玩家已购买月卡且未失效时，按钮变为不可用状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击按钮，进入手机扣费流程，若扣费成功，则弹出提示信息shop_record_002，同时下方出现提示信息，购买按钮文案变为“已购买”。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1445,10 +1442,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>若扣费失败，则进入手机充值流程，完成充值后或者其他原因，回到游戏，游戏显示离开前的界面。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>点击按钮，检测玩家持有货币是否足够支付，若足够，则购买成功，扣除对应货币，获得对应物品，弹出提示信息shop_record_001，单个道具显示样式处的“购买消耗”位置变更为“已购买”样式。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1591,11 +1584,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>填写固定出售的商品，填写几个即代表会有几个固定商品出售
-填写格式：type_itemID_数量_权重 ，用，分割</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>随机商品配置表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1609,10 +1597,6 @@
   </si>
   <si>
     <t>序号，从10001开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写格式：type_itemID_数量_权重 ，用，分割</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1670,6 +1654,87 @@
   <si>
     <t>钻石兑换金币界面</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在数据库中，玩家通过充值获得的钻石以及游戏本身投放给玩家的钻石需要分别记录，但显示给玩家的是一个值。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写固定出售的商品，填写几个即代表会有几个固定商品出售
+填写格式：type_itemID_数量_权重 ，用，分割（其中“type_itemID_数量”部分符合道具通用配置结构，见文档《道具基础逻辑》的”总体说明“切页）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写格式：type_itemID_数量_权重 ，用，分割（其中“type_itemID_数量”部分符合道具通用配置结构，见文档《道具基础逻辑》的”总体说明“切页）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆之后，用户确认购买信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若此时确认购买，则检测玩家的苹果账户钱是否够充值，若足够，则购买成功，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮，弹出二级确认框，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定购买30天月卡？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天登陆可领取400钻石，100体力，8个扫荡卷！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>“400钻石，100体力，8个扫荡卷！”用不同颜色标示，颜色待定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏内进行购买操作后，首先弹出苹果账号登陆界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若不足够，则提示充值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若此时点击取消，回到游戏（回到玩家之前点击购买的位置）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若此时点击取消，回到游戏（回到玩家之前点击购买的位置）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若前往充值，则切换到iTunes的充值界面。无论玩家充值与否，回到游戏后，回到玩家之前点击购买的位置。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击取消按钮，关闭二级，购买取消；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击购买，进入手机扣费流程，若扣费成功，则弹出提示信息shop_record_002，同时下方出现提示信息，购买按钮文案变为“已购买”。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果扣费、充值流程（参考，不属于设计内容）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若扣费失败，则进入手机充值流程，完成充值后或者其他原因，回到游戏，游戏显示离开前的界面。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：若扣费失败，走手机充值流程回到游戏后，需要玩家重新点击“购买”按钮进行购买，不会在玩家充值后直接进行扣费充值。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2240,13 +2305,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>355</xdr:row>
+      <xdr:row>358</xdr:row>
       <xdr:rowOff>175361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2278,13 +2343,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>685511</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>47388</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2316,13 +2381,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>11941</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2354,13 +2419,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247463</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>56995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2392,13 +2457,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2442,13 +2507,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2492,13 +2557,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2542,13 +2607,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2592,13 +2657,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342902</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2642,13 +2707,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2692,13 +2757,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>352300</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>133312</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2730,13 +2795,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2780,13 +2845,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600077</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2830,13 +2895,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2880,13 +2945,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228411</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>28417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2918,13 +2983,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2968,13 +3033,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457202</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3018,13 +3083,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428627</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>85727</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3068,13 +3133,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>438152</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>85727</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3118,13 +3183,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3168,13 +3233,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323479</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>56942</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3206,13 +3271,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3256,13 +3321,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>323848</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3306,13 +3371,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3353,13 +3418,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3400,13 +3465,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>658147</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3447,13 +3512,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>161480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3485,13 +3550,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>380907</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>19012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3523,13 +3588,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>466544</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>209399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3561,13 +3626,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3611,13 +3676,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3661,13 +3726,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>432</xdr:row>
+      <xdr:row>448</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>625463</xdr:colOff>
-      <xdr:row>446</xdr:row>
+      <xdr:row>462</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3699,13 +3764,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>432</xdr:row>
+      <xdr:row>448</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>446</xdr:row>
+      <xdr:row>462</xdr:row>
       <xdr:rowOff>105746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3737,13 +3802,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>447</xdr:row>
+      <xdr:row>463</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>616877</xdr:colOff>
-      <xdr:row>461</xdr:row>
+      <xdr:row>477</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3775,13 +3840,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>685798</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>142877</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3825,13 +3890,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>657223</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3875,13 +3940,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>114302</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3925,13 +3990,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3975,13 +4040,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>104162</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>104657</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4013,13 +4078,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>342</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>344</xdr:row>
+      <xdr:row>347</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4063,13 +4128,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4113,13 +4178,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>352</xdr:row>
+      <xdr:row>355</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>580810</xdr:colOff>
-      <xdr:row>353</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>152355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4151,13 +4216,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304803</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>356</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4201,13 +4266,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466728</xdr:colOff>
-      <xdr:row>353</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>355</xdr:row>
+      <xdr:row>358</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4251,13 +4316,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>447</xdr:row>
+      <xdr:row>463</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>408667</xdr:colOff>
-      <xdr:row>462</xdr:row>
+      <xdr:row>478</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4289,13 +4354,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4339,13 +4404,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>354</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>355</xdr:row>
+      <xdr:row>358</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4389,13 +4454,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428339</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>75964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4427,13 +4492,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4477,13 +4542,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171452</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4527,13 +4592,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>209397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4565,13 +4630,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>409275</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>123707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4603,13 +4668,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>507158</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4641,13 +4706,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>509297</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4679,13 +4744,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123642</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>180824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4705,6 +4770,234 @@
         <a:xfrm>
           <a:off x="4143375" y="30308550"/>
           <a:ext cx="1466667" cy="1209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>632561</xdr:colOff>
+      <xdr:row>499</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="98364675"/>
+          <a:ext cx="4614011" cy="3467100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>501</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>517</xdr:row>
+      <xdr:rowOff>106237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809626" y="102212775"/>
+          <a:ext cx="4571999" cy="3430462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447312</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>66442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="80038575"/>
+          <a:ext cx="2904762" cy="1866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>533</xdr:row>
+      <xdr:rowOff>61883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904876" y="108565951"/>
+          <a:ext cx="4781550" cy="2690782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>535</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175243</xdr:colOff>
+      <xdr:row>552</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="111699675"/>
+          <a:ext cx="4699618" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>555</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>667933</xdr:colOff>
+      <xdr:row>571</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="115881150"/>
+          <a:ext cx="4525558" cy="3371850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7261,13 +7554,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7308,13 +7601,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7358,13 +7651,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7408,13 +7701,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>625463</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7446,13 +7739,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>105746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7484,13 +7777,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>616877</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7522,13 +7815,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>408667</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7560,13 +7853,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7607,13 +7900,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561973</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7657,13 +7950,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>96838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7707,13 +8000,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>589756</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>96044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>591344</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>191294</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7757,13 +8050,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>411163</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7807,13 +8100,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>343</xdr:row>
+      <xdr:row>355</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>357</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7854,13 +8147,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>357</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>125413</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>358</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7904,13 +8197,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>357</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>487363</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>358</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7954,13 +8247,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>360</xdr:row>
+      <xdr:row>372</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>382</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7993,6 +8286,44 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447312</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>66442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="图片 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="80038575"/>
+          <a:ext cx="2904762" cy="1866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8314,8 +8645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8562,10 +8893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z448"/>
+  <dimension ref="A1:Z555"/>
   <sheetViews>
-    <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="C432" sqref="C432:W464"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="P331" sqref="P331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8651,100 +8982,85 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="E15" s="12" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E17" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I17" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="M21" s="12" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M23" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="12" t="s">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B29" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="G35" s="12" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G37" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C37" s="15" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C38" s="16"/>
-      <c r="D38" s="16" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="18" t="s">
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C41" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C42" s="2"/>
-      <c r="D42" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="D42" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C43" s="2"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="C43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C44" s="2"/>
       <c r="D44" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
@@ -8755,7 +9071,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="19"/>
       <c r="E45" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
@@ -8764,7 +9080,7 @@
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C46" s="2"/>
       <c r="D46" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -8775,7 +9091,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
@@ -8784,7 +9100,7 @@
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C48" s="2"/>
       <c r="D48" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -8795,18 +9111,16 @@
       <c r="C49" s="2"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C50" s="18" t="s">
-        <v>47</v>
-      </c>
+      <c r="C50" s="2"/>
       <c r="D50" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -8817,16 +9131,18 @@
       <c r="C51" s="2"/>
       <c r="D51" s="19"/>
       <c r="E51" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
       <c r="H51" s="20"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C52" s="2"/>
+      <c r="C52" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="D52" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -8837,16 +9153,16 @@
       <c r="C53" s="2"/>
       <c r="D53" s="19"/>
       <c r="E53" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+        <v>221</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
       <c r="H53" s="20"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C54" s="2"/>
       <c r="D54" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -8857,31 +9173,27 @@
       <c r="C55" s="2"/>
       <c r="D55" s="19"/>
       <c r="E55" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G55" s="23"/>
+        <v>56</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
       <c r="H55" s="20"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C56" s="2"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="23"/>
+      <c r="D56" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="20"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C57" s="2"/>
       <c r="D57" s="19"/>
       <c r="E57" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>59</v>
@@ -8891,115 +9203,125 @@
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C58" s="2"/>
-      <c r="D58" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="23"/>
       <c r="H58" s="20"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C59" s="2"/>
-      <c r="D59" s="20"/>
+      <c r="D59" s="19"/>
       <c r="E59" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="23"/>
       <c r="H59" s="20"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>66</v>
-      </c>
+      <c r="D60" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C62" s="2"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C63" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C62" s="18" t="s">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C64" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D64" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D63" s="12" t="s">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D65" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D64" s="12" t="s">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D66" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D65" s="24" t="s">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D67" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D66" s="24"/>
-      <c r="E66" s="24" t="s">
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D68" s="24"/>
+      <c r="E68" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F66" s="24"/>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D67" s="26" t="s">
+      <c r="F68" s="24"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D69" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E69" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F67" s="26"/>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D68" s="27" t="s">
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D70" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E68" s="28" t="s">
+      <c r="E70" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F68" s="26"/>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C69" s="13" t="s">
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C71" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D70" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D71" s="19"/>
-      <c r="E71" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F71" s="20"/>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D72" s="19" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -9007,153 +9329,146 @@
     <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D73" s="19"/>
       <c r="E73" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F73" s="20"/>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D74" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D75" s="19"/>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" s="20"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D76" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D77" s="19"/>
+      <c r="E77" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F75" s="20"/>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D76" s="19"/>
-      <c r="E76" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F76" s="20"/>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C77" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77" s="20"/>
       <c r="F77" s="20"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D78" s="19"/>
       <c r="E78" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F78" s="20"/>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D79" s="19"/>
+      <c r="C79" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="20"/>
       <c r="F79" s="20"/>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D80" s="19"/>
+      <c r="E80" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="F80" s="20"/>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D81" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E81" s="20"/>
+      <c r="D81" s="19"/>
       <c r="F81" s="20"/>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D82" s="19"/>
-      <c r="E82" s="12" t="s">
+      <c r="F82" s="20"/>
+    </row>
+    <row r="83" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D83" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+    </row>
+    <row r="84" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D84" s="19"/>
+      <c r="E84" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="F82" s="20"/>
-    </row>
-    <row r="83" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="E83" s="12" t="s">
+      <c r="F84" s="20"/>
+    </row>
+    <row r="85" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="E85" s="12" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="85" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="J85" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K85" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.35">
       <c r="J87" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="J89" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K87" s="12" t="s">
+      <c r="K89" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-    </row>
-    <row r="88" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="J88" s="18" t="s">
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+    </row>
+    <row r="90" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="J90" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L88" s="12" t="s">
+      <c r="L90" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-    </row>
-    <row r="90" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="K90" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="K91" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.35">
       <c r="K92" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="K93" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="K94" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="N92" s="25"/>
-    </row>
-    <row r="94" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="J94" s="12" t="s">
+      <c r="N94" s="25"/>
+    </row>
+    <row r="96" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="J96" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="K94" s="12" t="s">
+      <c r="K96" s="12" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="96" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="E96" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="N96" s="24"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="E97" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="N97" s="24"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="24"/>
-      <c r="Q97" s="24"/>
     </row>
     <row r="98" spans="3:17" x14ac:dyDescent="0.35">
       <c r="E98" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="K98" s="41" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N98" s="24"/>
       <c r="O98" s="24"/>
@@ -9161,46 +9476,47 @@
       <c r="Q98" s="24"/>
     </row>
     <row r="99" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="E99" s="12" t="s">
+        <v>249</v>
+      </c>
       <c r="N99" s="24"/>
       <c r="O99" s="24"/>
       <c r="P99" s="24"/>
       <c r="Q99" s="24"/>
     </row>
     <row r="100" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D100" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
+      <c r="E100" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="K100" s="41" t="s">
+        <v>253</v>
+      </c>
       <c r="N100" s="24"/>
       <c r="O100" s="24"/>
       <c r="P100" s="24"/>
       <c r="Q100" s="24"/>
     </row>
     <row r="101" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D101" s="19"/>
-      <c r="E101" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F101" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G101" s="23"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
     </row>
     <row r="102" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D102" s="19"/>
-      <c r="E102" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F102" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G102" s="23"/>
+      <c r="D102" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
     </row>
     <row r="103" spans="3:17" x14ac:dyDescent="0.35">
       <c r="D103" s="19"/>
       <c r="E103" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F103" s="23" t="s">
         <v>59</v>
@@ -9208,80 +9524,84 @@
       <c r="G103" s="23"/>
     </row>
     <row r="104" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="19"/>
+      <c r="E104" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G104" s="23"/>
+    </row>
+    <row r="105" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="D105" s="19"/>
+      <c r="E105" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G105" s="23"/>
+    </row>
+    <row r="106" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="D106" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-    </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="E105" s="20" t="s">
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+    </row>
+    <row r="107" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="E107" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="F107" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="E106" s="20" t="s">
+    <row r="108" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="E108" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F106" s="25" t="s">
+      <c r="F108" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C107" s="13" t="s">
+    <row r="109" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C109" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D108" s="13" t="s">
+    <row r="110" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="D110" s="13" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="109" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="F109" s="12" t="s">
+    <row r="111" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="F111" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="H113" s="12" t="s">
+    <row r="115" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="H115" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="F117" s="12" t="s">
+    <row r="119" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="F119" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E119" s="13" t="s">
+    <row r="121" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E121" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E120" s="18" t="s">
+    <row r="122" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E122" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F120" s="26" t="s">
+      <c r="F122" s="26" t="s">
         <v>113</v>
-      </c>
-      <c r="G120" s="26"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="26"/>
-    </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="F121" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="26"/>
-    </row>
-    <row r="122" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="F122" s="26" t="s">
-        <v>115</v>
       </c>
       <c r="G122" s="26"/>
       <c r="H122" s="26"/>
@@ -9289,106 +9609,116 @@
     </row>
     <row r="123" spans="5:9" x14ac:dyDescent="0.35">
       <c r="F123" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="G123" s="26" t="s">
-        <v>102</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G123" s="26"/>
       <c r="H123" s="26"/>
       <c r="I123" s="26"/>
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="F124" s="27" t="s">
+      <c r="F124" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G124" s="26"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
+    </row>
+    <row r="125" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="F125" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G125" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
+    </row>
+    <row r="126" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="F126" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G124" s="22" t="s">
+      <c r="G126" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="F125" s="27" t="s">
+    <row r="127" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="F127" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="F126" s="12" t="s">
+    <row r="128" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="F128" s="12" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="G127" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="G128" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="129" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G129" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G130" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G131" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="136" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E136" s="13" t="s">
+    <row r="138" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E138" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F137" s="26" t="s">
+    <row r="139" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F139" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
-    </row>
-    <row r="138" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F138" s="26" t="s">
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
+    </row>
+    <row r="140" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F140" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="G138" s="21"/>
-      <c r="H138" s="27"/>
-    </row>
-    <row r="139" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E139" s="13" t="s">
+      <c r="G140" s="21"/>
+      <c r="H140" s="27"/>
+    </row>
+    <row r="141" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E141" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="140" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F140" s="12" t="s">
+    <row r="142" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F142" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F141" s="12" t="s">
+    <row r="143" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F143" s="12" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="142" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F142" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="143" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F143" s="27" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="144" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F144" s="27" t="s">
-        <v>355</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="5:12" x14ac:dyDescent="0.35">
       <c r="F145" s="27" t="s">
-        <v>356</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="F146" s="27"/>
+      <c r="F146" s="27" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="147" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="F147" s="27"/>
+      <c r="F147" s="27" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="148" spans="5:12" x14ac:dyDescent="0.35">
       <c r="F148" s="27"/>
@@ -9400,212 +9730,188 @@
       <c r="F150" s="27"/>
     </row>
     <row r="151" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E151" s="13" t="s">
+      <c r="F151" s="27"/>
+    </row>
+    <row r="152" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="F152" s="27"/>
+    </row>
+    <row r="153" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E153" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="152" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="F152" s="12" t="s">
+    <row r="154" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="F154" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="153" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="F153" s="12" t="s">
+    <row r="155" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="F155" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="156" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="F156" s="12" t="s">
+    <row r="158" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="F158" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L156" s="12" t="s">
+      <c r="L158" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="157" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="L157" s="12" t="s">
+    <row r="159" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L159" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="158" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="L158" s="12" t="s">
+    <row r="160" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L160" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="160" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="F160" s="12" t="s">
+    <row r="162" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F162" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="163" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F163" s="12" t="s">
+    <row r="165" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F165" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="L163" s="12" t="s">
+      <c r="L165" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G165" s="13" t="s">
+    <row r="167" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="G167" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H165" s="26" t="s">
+      <c r="H167" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="I165" s="26"/>
-      <c r="J165" s="26"/>
-    </row>
-    <row r="166" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="H166" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="I166" s="21"/>
-      <c r="J166" s="27"/>
-    </row>
-    <row r="167" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F167" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="I167" s="26"/>
+      <c r="J167" s="26"/>
     </row>
     <row r="168" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H168" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="I168" s="26"/>
-      <c r="J168" s="26"/>
-      <c r="K168" s="26"/>
+        <v>126</v>
+      </c>
+      <c r="I168" s="21"/>
+      <c r="J168" s="27"/>
     </row>
     <row r="169" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="H169" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="I169" s="26"/>
-      <c r="J169" s="26"/>
-      <c r="K169" s="26"/>
+      <c r="F169" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="170" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H170" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I170" s="26" t="s">
-        <v>102</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="I170" s="26"/>
       <c r="J170" s="26"/>
       <c r="K170" s="26"/>
     </row>
     <row r="171" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="H171" s="27" t="s">
+      <c r="H171" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I171" s="26"/>
+      <c r="J171" s="26"/>
+      <c r="K171" s="26"/>
+    </row>
+    <row r="172" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="H172" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I172" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J172" s="26"/>
+      <c r="K172" s="26"/>
+    </row>
+    <row r="173" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="H173" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="I171" s="22" t="s">
+      <c r="I173" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F172" s="18" t="s">
+    <row r="174" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F174" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G172" s="13" t="s">
+      <c r="G174" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="H173" s="12" t="s">
+    <row r="175" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="H175" s="12" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="174" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="H174" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="175" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="H175" s="27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="176" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H176" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="3:13" x14ac:dyDescent="0.35">
       <c r="H177" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="178" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="H178" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I178" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="J178" s="26"/>
-      <c r="K178" s="26"/>
+      <c r="H178" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="179" spans="3:13" x14ac:dyDescent="0.35">
       <c r="H179" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="H180" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I180" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="J180" s="26"/>
+      <c r="K180" s="26"/>
+    </row>
+    <row r="181" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="H181" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="I179" s="21" t="s">
+      <c r="I181" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="180" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="F180" s="18" t="s">
+    <row r="182" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="F182" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G180" s="13" t="s">
+      <c r="G182" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="181" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G181" s="13"/>
-      <c r="H181" s="26" t="s">
+    <row r="183" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G183" s="13"/>
+      <c r="H183" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="I181" s="26"/>
-    </row>
-    <row r="182" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G182" s="13"/>
-      <c r="H182" s="26" t="s">
+      <c r="I183" s="26"/>
+    </row>
+    <row r="184" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G184" s="13"/>
+      <c r="H184" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="I182" s="26"/>
-    </row>
-    <row r="183" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C183" s="24"/>
-      <c r="D183" s="24"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="24"/>
-      <c r="G183" s="13"/>
-      <c r="H183" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="I183" s="24"/>
-      <c r="J183" s="24"/>
-      <c r="K183" s="24"/>
-      <c r="L183" s="24"/>
-      <c r="M183" s="24"/>
-    </row>
-    <row r="184" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C184" s="24"/>
-      <c r="D184" s="24"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="24"/>
-      <c r="G184" s="13"/>
-      <c r="H184" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="I184" s="24"/>
-      <c r="J184" s="24"/>
-      <c r="K184" s="24"/>
-      <c r="L184" s="24"/>
-      <c r="M184" s="24"/>
+      <c r="I184" s="26"/>
     </row>
     <row r="185" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C185" s="24"/>
@@ -9613,90 +9919,106 @@
       <c r="E185" s="24"/>
       <c r="F185" s="24"/>
       <c r="G185" s="13"/>
-      <c r="H185" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I185" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="J185" s="26"/>
+      <c r="H185" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I185" s="24"/>
+      <c r="J185" s="24"/>
+      <c r="K185" s="24"/>
+      <c r="L185" s="24"/>
+      <c r="M185" s="24"/>
     </row>
     <row r="186" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
       <c r="G186" s="13"/>
       <c r="H186" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="I186" s="21" t="s">
-        <v>134</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="I186" s="24"/>
+      <c r="J186" s="24"/>
+      <c r="K186" s="24"/>
+      <c r="L186" s="24"/>
+      <c r="M186" s="24"/>
     </row>
     <row r="187" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="F187" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G187" s="13" t="s">
-        <v>138</v>
-      </c>
+      <c r="C187" s="24"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="24"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I187" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J187" s="26"/>
     </row>
     <row r="188" spans="3:13" x14ac:dyDescent="0.35">
       <c r="G188" s="13"/>
-      <c r="H188" s="12" t="s">
-        <v>139</v>
+      <c r="H188" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I188" s="21" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="189" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G189" s="13"/>
-      <c r="H189" s="12" t="s">
-        <v>245</v>
+      <c r="F189" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G189" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="190" spans="3:13" x14ac:dyDescent="0.35">
       <c r="G190" s="13"/>
-      <c r="H190" s="27" t="s">
-        <v>140</v>
+      <c r="H190" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="191" spans="3:13" x14ac:dyDescent="0.35">
       <c r="G191" s="13"/>
-      <c r="H191" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I191" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="J191" s="26"/>
+      <c r="H191" s="12" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="192" spans="3:13" x14ac:dyDescent="0.35">
       <c r="G192" s="13"/>
       <c r="H192" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G193" s="13"/>
+      <c r="H193" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I193" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="J193" s="26"/>
+    </row>
+    <row r="194" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G194" s="13"/>
+      <c r="H194" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="I192" s="21" t="s">
+      <c r="I194" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="193" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G193" s="13" t="s">
+    <row r="195" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G195" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="194" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="H194" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I194" s="20"/>
-      <c r="J194" s="20"/>
-    </row>
-    <row r="195" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="H195" s="19"/>
-      <c r="I195" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J195" s="20"/>
     </row>
     <row r="196" spans="7:11" x14ac:dyDescent="0.35">
       <c r="H196" s="19" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I196" s="20"/>
       <c r="J196" s="20"/>
@@ -9704,27 +10026,27 @@
     <row r="197" spans="7:11" x14ac:dyDescent="0.35">
       <c r="H197" s="19"/>
       <c r="I197" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J197" s="20"/>
     </row>
     <row r="198" spans="7:11" x14ac:dyDescent="0.35">
       <c r="H198" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I198" s="20"/>
       <c r="J198" s="20"/>
     </row>
     <row r="199" spans="7:11" x14ac:dyDescent="0.35">
       <c r="H199" s="19"/>
-      <c r="I199" s="12" t="s">
-        <v>141</v>
+      <c r="I199" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="J199" s="20"/>
     </row>
     <row r="200" spans="7:11" x14ac:dyDescent="0.35">
       <c r="H200" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I200" s="20"/>
       <c r="J200" s="20"/>
@@ -9732,53 +10054,47 @@
     <row r="201" spans="7:11" x14ac:dyDescent="0.35">
       <c r="H201" s="19"/>
       <c r="I201" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J201" s="20"/>
     </row>
     <row r="202" spans="7:11" x14ac:dyDescent="0.35">
       <c r="H202" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I202" s="20"/>
       <c r="J202" s="20"/>
     </row>
     <row r="203" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="H203" s="19"/>
       <c r="I203" s="12" t="s">
-        <v>145</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="J203" s="20"/>
     </row>
     <row r="204" spans="7:11" x14ac:dyDescent="0.35">
       <c r="H204" s="19" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I204" s="20"/>
       <c r="J204" s="20"/>
     </row>
     <row r="205" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="H205" s="19"/>
-      <c r="I205" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J205" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K205" s="23"/>
+      <c r="I205" s="12" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="206" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="H206" s="19"/>
-      <c r="I206" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J206" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K206" s="23"/>
+      <c r="H206" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I206" s="20"/>
+      <c r="J206" s="20"/>
     </row>
     <row r="207" spans="7:11" x14ac:dyDescent="0.35">
       <c r="H207" s="19"/>
       <c r="I207" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J207" s="23" t="s">
         <v>59</v>
@@ -9786,138 +10102,136 @@
       <c r="K207" s="23"/>
     </row>
     <row r="208" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="H208" s="19" t="s">
+      <c r="H208" s="19"/>
+      <c r="I208" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J208" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K208" s="23"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H209" s="19"/>
+      <c r="I209" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J209" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K209" s="23"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H210" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I208" s="20"/>
-      <c r="J208" s="20"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I209" s="20" t="s">
+      <c r="I210" s="20"/>
+      <c r="J210" s="20"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I211" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J209" s="20" t="s">
+      <c r="J211" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I210" s="20" t="s">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I212" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="J210" s="25" t="s">
+      <c r="J212" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G211" s="13" t="s">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G213" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H212" s="19" t="s">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H214" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="I212" s="20"/>
-      <c r="J212" s="20"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H213" s="19"/>
-      <c r="I213" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J213" s="20"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H214" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="I214" s="20"/>
       <c r="J214" s="20"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H215" s="19"/>
       <c r="I215" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J215" s="20"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H216" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I216" s="20"/>
       <c r="J216" s="20"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H217" s="19"/>
-      <c r="I217" s="12" t="s">
+      <c r="I217" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J217" s="20"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H218" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I218" s="20"/>
+      <c r="J218" s="20"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H219" s="19"/>
+      <c r="I219" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="J217" s="20"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H218" s="19"/>
-      <c r="I218" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="J218" s="20"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H219" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I219" s="20"/>
       <c r="J219" s="20"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A220" s="24"/>
-      <c r="B220" s="24"/>
-      <c r="C220" s="24"/>
-      <c r="D220" s="24"/>
-      <c r="E220" s="24"/>
-      <c r="F220" s="24"/>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H220" s="19"/>
       <c r="I220" s="12" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="J220" s="20"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A221" s="24"/>
-      <c r="B221" s="24"/>
-      <c r="C221" s="24"/>
-      <c r="D221" s="24"/>
-      <c r="E221" s="24"/>
-      <c r="F221" s="24"/>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H221" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I221" s="20"/>
       <c r="J221" s="20"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" s="24"/>
       <c r="B222" s="24"/>
       <c r="C222" s="24"/>
       <c r="D222" s="24"/>
       <c r="E222" s="24"/>
       <c r="F222" s="24"/>
+      <c r="H222" s="19"/>
       <c r="I222" s="12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+      <c r="J222" s="20"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" s="24"/>
       <c r="B223" s="24"/>
       <c r="C223" s="24"/>
       <c r="D223" s="24"/>
       <c r="E223" s="24"/>
       <c r="F223" s="24"/>
-      <c r="I223" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H223" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I223" s="20"/>
+      <c r="J223" s="20"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" s="24"/>
       <c r="B224" s="24"/>
       <c r="C224" s="24"/>
@@ -9925,7 +10239,7 @@
       <c r="E224" s="24"/>
       <c r="F224" s="24"/>
       <c r="I224" s="12" t="s">
-        <v>251</v>
+        <v>352</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.35">
@@ -9935,74 +10249,76 @@
       <c r="D225" s="24"/>
       <c r="E225" s="24"/>
       <c r="F225" s="24"/>
+      <c r="I225" s="12" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="M226" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N226" s="12" t="s">
-        <v>81</v>
-      </c>
+      <c r="A226" s="24"/>
+      <c r="B226" s="24"/>
+      <c r="C226" s="24"/>
+      <c r="D226" s="24"/>
+      <c r="E226" s="24"/>
+      <c r="F226" s="24"/>
+      <c r="I226" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A227" s="24"/>
+      <c r="B227" s="24"/>
+      <c r="C227" s="24"/>
+      <c r="D227" s="24"/>
+      <c r="E227" s="24"/>
+      <c r="F227" s="24"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M228" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N228" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M230" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N228" s="12" t="s">
+      <c r="N230" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="M229" s="18" t="s">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M231" s="18" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I232" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I233" s="12" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I234" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I235" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I236" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H235" s="19" t="s">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H237" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="I235" s="20"/>
-      <c r="J235" s="20"/>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H236" s="19"/>
-      <c r="I236" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J236" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K236" s="23"/>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H237" s="19"/>
-      <c r="I237" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J237" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K237" s="23"/>
+      <c r="I237" s="20"/>
+      <c r="J237" s="20"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H238" s="19"/>
       <c r="I238" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J238" s="23" t="s">
         <v>59</v>
@@ -10010,161 +10326,171 @@
       <c r="K238" s="23"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H239" s="19" t="s">
+      <c r="H239" s="19"/>
+      <c r="I239" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J239" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K239" s="23"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H240" s="19"/>
+      <c r="I240" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J240" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K240" s="23"/>
+    </row>
+    <row r="241" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="H241" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I239" s="20"/>
-      <c r="J239" s="20"/>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I240" s="20" t="s">
+      <c r="I241" s="20"/>
+      <c r="J241" s="20"/>
+    </row>
+    <row r="242" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="I242" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J240" s="20" t="s">
+      <c r="J242" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="241" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="I241" s="20" t="s">
+    <row r="243" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="I243" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="J241" s="25" t="s">
+      <c r="J243" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D243" s="13" t="s">
+    <row r="245" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D245" s="13" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="244" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="H244" s="12" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="246" spans="4:10" x14ac:dyDescent="0.35">
       <c r="H246" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="248" spans="4:10" x14ac:dyDescent="0.35">
       <c r="H248" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="250" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="H250" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="251" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="F251" s="12" t="s">
+    <row r="253" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="F253" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="253" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="E253" s="13" t="s">
+    <row r="255" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E255" s="13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="254" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="F254" s="12" t="s">
+    <row r="256" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="F256" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="255" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="F255" s="26" t="s">
+    <row r="257" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F257" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G255" s="25" t="s">
+      <c r="G257" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H255" s="26"/>
-    </row>
-    <row r="256" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="F256" s="27" t="s">
+      <c r="H257" s="26"/>
+    </row>
+    <row r="258" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F258" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G256" s="25" t="s">
+      <c r="G258" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="257" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E257" s="13" t="s">
+    <row r="259" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E259" s="13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="258" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F258" s="12" t="s">
+    <row r="260" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F260" s="12" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="259" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F259" s="12" t="s">
+    <row r="261" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F261" s="12" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="260" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F260" s="12" t="s">
+    <row r="262" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F262" s="12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="265" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F265" s="25" t="s">
+    <row r="267" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F267" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="G265" s="25"/>
-      <c r="H265" s="25"/>
-    </row>
-    <row r="266" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E266" s="13" t="s">
+      <c r="G267" s="25"/>
+      <c r="H267" s="25"/>
+    </row>
+    <row r="268" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E268" s="13" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F267" s="12" t="s">
+    <row r="269" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F269" s="12" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="268" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F268" s="12" t="s">
+    <row r="270" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F270" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G268" s="12" t="s">
+      <c r="G270" s="12" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="269" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="G269" s="12" t="s">
+    <row r="271" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G271" s="12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="270" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F270" s="12" t="s">
+    <row r="272" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F272" s="12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="271" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F271" s="25" t="s">
+    <row r="273" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F273" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="G271" s="25"/>
-      <c r="H271" s="25"/>
-    </row>
-    <row r="272" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F272" s="24" t="s">
+      <c r="G273" s="25"/>
+      <c r="H273" s="25"/>
+    </row>
+    <row r="274" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F274" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="G272" s="24"/>
-      <c r="H272" s="24"/>
-      <c r="K272" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="273" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F273" s="24"/>
-      <c r="G273" s="24"/>
-      <c r="H273" s="24"/>
-    </row>
-    <row r="274" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F274" s="24"/>
       <c r="G274" s="24"/>
       <c r="H274" s="24"/>
+      <c r="K274" s="12" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="275" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F275" s="24"/>
@@ -10177,77 +10503,72 @@
       <c r="H276" s="24"/>
     </row>
     <row r="277" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E277" s="13" t="s">
+      <c r="F277" s="24"/>
+      <c r="G277" s="24"/>
+      <c r="H277" s="24"/>
+    </row>
+    <row r="278" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F278" s="24"/>
+      <c r="G278" s="24"/>
+      <c r="H278" s="24"/>
+    </row>
+    <row r="279" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E279" s="13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="278" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F278" s="12" t="s">
+    <row r="280" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F280" s="12" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F279" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="G279" s="12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="280" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="G280" s="12" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="281" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F281" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G281" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G282" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F283" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G281" s="12" t="s">
+      <c r="G283" s="12" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="282" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F282" s="25" t="s">
+    <row r="284" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F284" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="G282" s="25"/>
-      <c r="H282" s="25"/>
-    </row>
-    <row r="283" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E283" s="13" t="s">
+      <c r="G284" s="25"/>
+      <c r="H284" s="25"/>
+    </row>
+    <row r="285" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E285" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="284" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F284" s="12" t="s">
+    <row r="286" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F286" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="285" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F285" s="12" t="s">
+    <row r="287" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F287" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="286" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F286" s="24"/>
-      <c r="G286" s="24"/>
-      <c r="H286" s="24"/>
-    </row>
-    <row r="287" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F287" s="24"/>
-      <c r="G287" s="24"/>
-      <c r="H287" s="24"/>
-    </row>
     <row r="288" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="F288" s="24" t="s">
-        <v>304</v>
-      </c>
+      <c r="F288" s="24"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
-      <c r="K288" s="12" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="289" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F289" s="24"/>
@@ -10255,9 +10576,14 @@
       <c r="H289" s="24"/>
     </row>
     <row r="290" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F290" s="24"/>
+      <c r="F290" s="24" t="s">
+        <v>304</v>
+      </c>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
+      <c r="K290" s="12" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="291" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F291" s="24"/>
@@ -10286,29 +10612,25 @@
     </row>
     <row r="296" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F296" s="24"/>
-      <c r="G296" s="24" t="s">
-        <v>307</v>
-      </c>
+      <c r="G296" s="24"/>
       <c r="H296" s="24"/>
     </row>
     <row r="297" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F297" s="24"/>
-      <c r="G297" s="42" t="s">
-        <v>308</v>
-      </c>
+      <c r="G297" s="24"/>
       <c r="H297" s="24"/>
     </row>
     <row r="298" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F298" s="24"/>
-      <c r="G298" s="24"/>
-      <c r="H298" s="24" t="s">
-        <v>309</v>
-      </c>
+      <c r="G298" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="H298" s="24"/>
     </row>
     <row r="299" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F299" s="24"/>
       <c r="G299" s="42" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H299" s="24"/>
     </row>
@@ -10316,852 +10638,998 @@
       <c r="F300" s="24"/>
       <c r="G300" s="24"/>
       <c r="H300" s="24" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="301" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F301" s="24"/>
-      <c r="G301" s="24"/>
-      <c r="H301" s="12" t="s">
-        <v>311</v>
-      </c>
+      <c r="G301" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="H301" s="24"/>
     </row>
     <row r="302" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F302" s="24"/>
       <c r="G302" s="24"/>
       <c r="H302" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="L302" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="303" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F303" s="24"/>
       <c r="G303" s="24"/>
+      <c r="H303" s="12" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="304" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F304" s="24"/>
       <c r="G304" s="24"/>
-    </row>
-    <row r="305" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="H304" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="L304" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="305" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F305" s="24"/>
       <c r="G305" s="24"/>
     </row>
-    <row r="306" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="306" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F306" s="24"/>
       <c r="G306" s="24"/>
     </row>
-    <row r="307" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="307" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F307" s="24"/>
       <c r="G307" s="24"/>
     </row>
-    <row r="308" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="308" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F308" s="24"/>
       <c r="G308" s="24"/>
     </row>
-    <row r="309" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="309" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F309" s="24"/>
       <c r="G309" s="24"/>
     </row>
-    <row r="310" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="310" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F310" s="24"/>
-      <c r="G310" s="13" t="s">
+      <c r="G310" s="24"/>
+    </row>
+    <row r="311" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F311" s="24"/>
+      <c r="G311" s="24"/>
+    </row>
+    <row r="312" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F312" s="24"/>
+      <c r="G312" s="13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="311" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F311" s="24"/>
-      <c r="H311" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I311" s="20"/>
-      <c r="J311" s="20"/>
-    </row>
-    <row r="312" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F312" s="24"/>
-      <c r="H312" s="19"/>
-      <c r="I312" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J312" s="20"/>
-    </row>
-    <row r="313" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="313" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F313" s="24"/>
       <c r="H313" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I313" s="20"/>
       <c r="J313" s="20"/>
     </row>
-    <row r="314" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="314" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F314" s="24"/>
       <c r="H314" s="19"/>
       <c r="I314" s="20" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="J314" s="20"/>
     </row>
-    <row r="315" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="315" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F315" s="24"/>
       <c r="H315" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I315" s="20"/>
       <c r="J315" s="20"/>
     </row>
-    <row r="316" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="316" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F316" s="24"/>
       <c r="H316" s="19"/>
-      <c r="I316" s="12" t="s">
+      <c r="I316" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J316" s="20"/>
+    </row>
+    <row r="317" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F317" s="24"/>
+      <c r="H317" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I317" s="20"/>
+      <c r="J317" s="20"/>
+    </row>
+    <row r="318" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F318" s="24"/>
+      <c r="H318" s="19"/>
+      <c r="I318" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="J316" s="20"/>
-    </row>
-    <row r="317" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F317" s="24"/>
-      <c r="H317" s="19"/>
-      <c r="I317" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="J317" s="20"/>
-    </row>
-    <row r="318" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F318" s="24"/>
-      <c r="H318" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I318" s="20"/>
       <c r="J318" s="20"/>
     </row>
-    <row r="319" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="319" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F319" s="24"/>
       <c r="H319" s="19"/>
       <c r="I319" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="J319" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="320" spans="6:11" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+      <c r="J319" s="20"/>
+    </row>
+    <row r="320" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F320" s="24"/>
-      <c r="H320" s="19"/>
-      <c r="I320" s="12" t="s">
-        <v>319</v>
-      </c>
+      <c r="H320" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I320" s="20"/>
       <c r="J320" s="20"/>
-      <c r="K320" s="12" t="s">
-        <v>320</v>
-      </c>
     </row>
     <row r="321" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F321" s="24"/>
-      <c r="H321" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I321" s="20"/>
-      <c r="J321" s="20"/>
+      <c r="H321" s="19"/>
+      <c r="I321" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J321" s="12" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="322" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F322" s="24"/>
       <c r="H322" s="19"/>
-      <c r="I322" s="20" t="s">
-        <v>357</v>
+      <c r="I322" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="J322" s="20"/>
+      <c r="K322" s="12" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="323" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F323" s="24"/>
-      <c r="H323" s="19"/>
-      <c r="I323" s="20" t="s">
-        <v>358</v>
-      </c>
+      <c r="H323" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I323" s="20"/>
       <c r="J323" s="20"/>
     </row>
     <row r="324" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F324" s="24"/>
-      <c r="H324" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="I324" s="20"/>
+      <c r="H324" s="19"/>
+      <c r="I324" s="20" t="s">
+        <v>355</v>
+      </c>
       <c r="J324" s="20"/>
     </row>
     <row r="325" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F325" s="24"/>
       <c r="H325" s="19"/>
       <c r="I325" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J325" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K325" s="23"/>
+        <v>356</v>
+      </c>
+      <c r="J325" s="20"/>
     </row>
     <row r="326" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F326" s="24"/>
       <c r="H326" s="19"/>
       <c r="I326" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J326" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K326" s="23"/>
+        <v>424</v>
+      </c>
+      <c r="J326" s="20"/>
     </row>
     <row r="327" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F327" s="24"/>
-      <c r="H327" s="19"/>
-      <c r="I327" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J327" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K327" s="23"/>
+      <c r="H327" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I327" s="20"/>
+      <c r="J327" s="20"/>
     </row>
     <row r="328" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F328" s="24"/>
-      <c r="H328" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I328" s="20"/>
-      <c r="J328" s="20"/>
+      <c r="H328" s="19"/>
+      <c r="I328" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J328" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K328" s="23"/>
     </row>
     <row r="329" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F329" s="24"/>
+      <c r="H329" s="19"/>
       <c r="I329" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J329" s="20" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J329" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K329" s="23"/>
     </row>
     <row r="330" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F330" s="24"/>
+      <c r="H330" s="19"/>
       <c r="I330" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="J330" s="25" t="s">
-        <v>66</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="J330" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K330" s="23"/>
     </row>
     <row r="331" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F331" s="24"/>
-      <c r="H331" s="19"/>
+      <c r="H331" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="I331" s="20"/>
       <c r="J331" s="20"/>
     </row>
     <row r="332" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D332" s="13" t="s">
+      <c r="F332" s="24"/>
+      <c r="I332" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J332" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="333" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F333" s="24"/>
+      <c r="I333" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J333" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="334" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F334" s="24"/>
+      <c r="H334" s="19"/>
+      <c r="I334" s="20"/>
+      <c r="J334" s="20"/>
+    </row>
+    <row r="335" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D335" s="13" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="333" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="E333" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="334" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="F334" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="335" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="F335" s="12" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="336" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E336" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="337" spans="4:6" x14ac:dyDescent="0.35">
       <c r="F337" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="338" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F338" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="339" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E339" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="340" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F340" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D339" s="13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D345" s="12" t="s">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D342" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="348" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D348" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D347" s="12" t="s">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D350" s="12" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D351" s="12" t="s">
+    <row r="354" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D354" s="12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="357" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="H357" s="12" t="s">
+    <row r="360" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="H360" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J357" s="12" t="s">
+      <c r="J360" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="L357" s="12" t="s">
+      <c r="L360" s="12" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="359" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F359" s="13" t="s">
+    <row r="362" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="F362" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="360" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G360" s="12" t="s">
+    <row r="363" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="G363" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="I360" s="12" t="s">
+      <c r="I363" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="361" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G361" s="12" t="s">
+    <row r="364" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="G364" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="I361" s="25" t="s">
+      <c r="I364" s="25" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="362" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G362" s="12" t="s">
+    <row r="365" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="G365" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="I362" s="25" t="s">
+      <c r="I365" s="25" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="363" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F363" s="13" t="s">
+    <row r="366" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="F366" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="364" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F364" s="13"/>
-      <c r="G364" s="12" t="s">
+    <row r="367" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="F367" s="13"/>
+      <c r="G367" s="12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="365" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G365" s="12" t="s">
+    <row r="368" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="G368" s="12" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="366" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G366" s="12" t="s">
+    <row r="369" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G369" s="12" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="367" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G367" s="26" t="s">
+    <row r="370" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G370" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H367" s="25" t="s">
+      <c r="H370" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="368" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G368" s="27" t="s">
+    <row r="371" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G371" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="H368" s="25" t="s">
+      <c r="H371" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="369" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F369" s="13" t="s">
+    <row r="372" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F372" s="13" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="370" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="G370" s="19" t="s">
+    <row r="373" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G373" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H370" s="20"/>
-      <c r="I370" s="20"/>
-    </row>
-    <row r="371" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="G371" s="19"/>
-      <c r="H371" s="20" t="s">
+      <c r="H373" s="20"/>
+      <c r="I373" s="20"/>
+    </row>
+    <row r="374" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G374" s="19"/>
+      <c r="H374" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I371" s="20"/>
-    </row>
-    <row r="372" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="G372" s="19" t="s">
+      <c r="I374" s="20"/>
+    </row>
+    <row r="375" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G375" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H372" s="20"/>
-      <c r="I372" s="20"/>
-    </row>
-    <row r="373" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="G373" s="19"/>
-      <c r="H373" s="25" t="s">
+      <c r="H375" s="20"/>
+      <c r="I375" s="20"/>
+    </row>
+    <row r="376" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G376" s="19"/>
+      <c r="H376" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I373" s="20"/>
-    </row>
-    <row r="374" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="G374" s="19" t="s">
+      <c r="I376" s="20"/>
+    </row>
+    <row r="377" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G377" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H374" s="20"/>
-      <c r="I374" s="20"/>
-    </row>
-    <row r="375" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="G375" s="19"/>
-      <c r="H375" s="12" t="s">
+      <c r="H377" s="20"/>
+      <c r="I377" s="20"/>
+    </row>
+    <row r="378" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G378" s="19"/>
+      <c r="H378" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="I375" s="20"/>
-    </row>
-    <row r="376" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="G376" s="19" t="s">
+      <c r="I378" s="20"/>
+    </row>
+    <row r="379" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G379" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H376" s="20"/>
-      <c r="I376" s="20"/>
-    </row>
-    <row r="377" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="G377" s="19"/>
-      <c r="H377" s="12" t="s">
+      <c r="H379" s="20"/>
+      <c r="I379" s="20"/>
+    </row>
+    <row r="380" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G380" s="19"/>
+      <c r="H380" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="I377" s="20"/>
-    </row>
-    <row r="378" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="G378" s="19" t="s">
+      <c r="I380" s="20"/>
+    </row>
+    <row r="381" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G381" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H378" s="20"/>
-      <c r="I378" s="20"/>
-    </row>
-    <row r="379" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="H379" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="I379" s="20"/>
-    </row>
-    <row r="380" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="H380" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="I380" s="20"/>
-    </row>
-    <row r="381" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="H381" s="20" t="s">
-        <v>353</v>
-      </c>
+      <c r="H381" s="20"/>
       <c r="I381" s="20"/>
     </row>
-    <row r="382" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="G382" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H382" s="20"/>
+    <row r="382" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="H382" s="20" t="s">
+        <v>410</v>
+      </c>
       <c r="I382" s="20"/>
     </row>
-    <row r="383" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="G383" s="19"/>
-      <c r="H383" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I383" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="J383" s="23"/>
-    </row>
-    <row r="384" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="G384" s="19"/>
-      <c r="H384" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I384" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="J384" s="23"/>
-    </row>
-    <row r="385" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="G385" s="19"/>
-      <c r="H385" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I385" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="J385" s="23"/>
-    </row>
-    <row r="386" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="G386" s="19" t="s">
-        <v>62</v>
-      </c>
+    <row r="383" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="H383" s="20"/>
+      <c r="I383" s="20"/>
+    </row>
+    <row r="384" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="H384" s="20"/>
+      <c r="I384" s="20"/>
+    </row>
+    <row r="385" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="H385" s="20"/>
+      <c r="I385" s="20"/>
+      <c r="M385" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N385" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="386" spans="7:20" x14ac:dyDescent="0.35">
       <c r="H386" s="20"/>
       <c r="I386" s="20"/>
     </row>
-    <row r="387" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="H387" s="20" t="s">
+    <row r="387" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="H387" s="20"/>
+      <c r="I387" s="20"/>
+      <c r="M387" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N387" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="388" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="H388" s="20"/>
+      <c r="I388" s="20"/>
+      <c r="M388" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N388" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="389" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="H389" s="20"/>
+      <c r="I389" s="20"/>
+    </row>
+    <row r="390" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="H390" s="20"/>
+      <c r="I390" s="20"/>
+      <c r="N390" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="O390" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="S390" s="25"/>
+      <c r="T390" s="25"/>
+    </row>
+    <row r="391" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="H391" s="20"/>
+      <c r="I391" s="20"/>
+    </row>
+    <row r="392" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="H392" s="20"/>
+      <c r="I392" s="20"/>
+    </row>
+    <row r="393" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="H393" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="I393" s="20"/>
+    </row>
+    <row r="394" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="H394" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="I394" s="20"/>
+    </row>
+    <row r="395" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="H395" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="I395" s="20"/>
+    </row>
+    <row r="396" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="H396" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="I396" s="20"/>
+    </row>
+    <row r="397" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="H397" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="I397" s="20"/>
+    </row>
+    <row r="398" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G398" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H398" s="20"/>
+      <c r="I398" s="20"/>
+    </row>
+    <row r="399" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G399" s="19"/>
+      <c r="H399" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I399" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J399" s="23"/>
+    </row>
+    <row r="400" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G400" s="19"/>
+      <c r="H400" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I400" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J400" s="23"/>
+    </row>
+    <row r="401" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="G401" s="19"/>
+      <c r="H401" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I401" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J401" s="23"/>
+    </row>
+    <row r="402" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="G402" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H402" s="20"/>
+      <c r="I402" s="20"/>
+    </row>
+    <row r="403" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="H403" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I387" s="20" t="s">
+      <c r="I403" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="388" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="H388" s="20" t="s">
+    <row r="404" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="H404" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I388" s="25" t="s">
+      <c r="I404" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="389" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="H389" s="21"/>
-      <c r="I389" s="24"/>
-      <c r="J389" s="24"/>
-    </row>
-    <row r="390" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C390" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="394" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="I394" s="12" t="s">
+    <row r="405" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="H405" s="21"/>
+      <c r="I405" s="24"/>
+      <c r="J405" s="24"/>
+    </row>
+    <row r="406" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C406" s="13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="410" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I410" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="K394" s="12" t="s">
+      <c r="K410" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="396" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="D396" s="12" t="s">
+    <row r="412" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D412" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="397" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="D397" s="12" t="s">
+    <row r="413" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D413" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F397" s="12" t="s">
+      <c r="F413" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="398" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="F398" s="26" t="s">
+    <row r="414" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="F414" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G398" s="26" t="s">
+      <c r="G414" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="H398" s="26"/>
-    </row>
-    <row r="399" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="F399" s="27" t="s">
+      <c r="H414" s="26"/>
+    </row>
+    <row r="415" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="F415" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G399" s="22" t="s">
+      <c r="G415" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="400" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="D400" s="12" t="s">
+    <row r="416" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D416" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F400" s="12" t="s">
+      <c r="F416" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="401" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="F401" s="26" t="s">
+    <row r="417" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="F417" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G401" s="26" t="s">
+      <c r="G417" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="402" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="F402" s="27" t="s">
+    <row r="418" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="F418" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G402" s="21" t="s">
+      <c r="G418" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="403" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D403" s="13" t="s">
+    <row r="419" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D419" s="13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="404" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E404" s="19" t="s">
+    <row r="420" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E420" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F404" s="20"/>
-      <c r="G404" s="20"/>
-    </row>
-    <row r="405" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E405" s="19"/>
-      <c r="F405" s="20" t="s">
+      <c r="F420" s="20"/>
+      <c r="G420" s="20"/>
+    </row>
+    <row r="421" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E421" s="19"/>
+      <c r="F421" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G405" s="20"/>
-    </row>
-    <row r="406" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E406" s="19" t="s">
+      <c r="G421" s="20"/>
+    </row>
+    <row r="422" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E422" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F406" s="20"/>
-      <c r="G406" s="20"/>
-    </row>
-    <row r="407" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E407" s="19"/>
-      <c r="F407" s="20" t="s">
+      <c r="F422" s="20"/>
+      <c r="G422" s="20"/>
+    </row>
+    <row r="423" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E423" s="19"/>
+      <c r="F423" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G407" s="20"/>
-    </row>
-    <row r="408" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E408" s="19" t="s">
+      <c r="G423" s="20"/>
+    </row>
+    <row r="424" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E424" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F408" s="20"/>
-      <c r="G408" s="20"/>
-    </row>
-    <row r="409" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E409" s="19"/>
-      <c r="F409" s="12" t="s">
+      <c r="F424" s="20"/>
+      <c r="G424" s="20"/>
+    </row>
+    <row r="425" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E425" s="19"/>
+      <c r="F425" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="G409" s="20"/>
-    </row>
-    <row r="410" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E410" s="19" t="s">
+      <c r="G425" s="20"/>
+    </row>
+    <row r="426" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E426" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F410" s="20"/>
-      <c r="G410" s="20"/>
-    </row>
-    <row r="411" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E411" s="19"/>
-      <c r="F411" s="12" t="s">
+      <c r="F426" s="20"/>
+      <c r="G426" s="20"/>
+    </row>
+    <row r="427" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E427" s="19"/>
+      <c r="F427" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G411" s="20"/>
-    </row>
-    <row r="412" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E412" s="19" t="s">
+      <c r="G427" s="20"/>
+    </row>
+    <row r="428" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E428" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F412" s="20"/>
-      <c r="G412" s="20"/>
-    </row>
-    <row r="413" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="F413" s="12" t="s">
+      <c r="F428" s="20"/>
+      <c r="G428" s="20"/>
+    </row>
+    <row r="429" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="F429" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="414" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="F414" s="12" t="s">
+    <row r="430" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="F430" s="12" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="415" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E415" s="19" t="s">
+    <row r="431" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E431" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F415" s="20"/>
-      <c r="G415" s="20"/>
-    </row>
-    <row r="416" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E416" s="19"/>
-      <c r="F416" s="20" t="s">
+      <c r="F431" s="20"/>
+      <c r="G431" s="20"/>
+    </row>
+    <row r="432" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E432" s="19"/>
+      <c r="F432" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G416" s="23" t="s">
+      <c r="G432" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H416" s="23"/>
-    </row>
-    <row r="417" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="E417" s="19"/>
-      <c r="F417" s="20" t="s">
+      <c r="H432" s="23"/>
+    </row>
+    <row r="433" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="E433" s="19"/>
+      <c r="F433" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G417" s="23" t="s">
+      <c r="G433" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H417" s="23"/>
-    </row>
-    <row r="418" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="E418" s="19"/>
-      <c r="F418" s="20" t="s">
+      <c r="H433" s="23"/>
+    </row>
+    <row r="434" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="E434" s="19"/>
+      <c r="F434" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G418" s="23" t="s">
+      <c r="G434" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H418" s="23"/>
-    </row>
-    <row r="419" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="E419" s="19" t="s">
+      <c r="H434" s="23"/>
+    </row>
+    <row r="435" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="E435" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F419" s="20"/>
-      <c r="G419" s="20"/>
-    </row>
-    <row r="420" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="F420" s="20" t="s">
+      <c r="F435" s="20"/>
+      <c r="G435" s="20"/>
+    </row>
+    <row r="436" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="F436" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G420" s="20" t="s">
+      <c r="G436" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="421" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="F421" s="20" t="s">
+    <row r="437" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="F437" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G421" s="25" t="s">
+      <c r="G437" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="423" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="C423" s="13" t="s">
+    <row r="439" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C439" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F439" s="24"/>
+      <c r="G439" s="24"/>
+      <c r="H439" s="24"/>
+      <c r="I439" s="24"/>
+      <c r="J439" s="24"/>
+    </row>
+    <row r="440" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C440" s="13"/>
+      <c r="D440" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F440" s="24"/>
+      <c r="G440" s="24"/>
+      <c r="H440" s="24"/>
+      <c r="I440" s="24"/>
+      <c r="J440" s="24"/>
+    </row>
+    <row r="441" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C441" s="13"/>
+      <c r="D441" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F441" s="24"/>
+      <c r="G441" s="24"/>
+      <c r="H441" s="24"/>
+      <c r="I441" s="24"/>
+      <c r="J441" s="24"/>
+    </row>
+    <row r="442" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C442" s="13"/>
+      <c r="D442" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="F442" s="24"/>
+      <c r="G442" s="24"/>
+      <c r="H442" s="24"/>
+      <c r="I442" s="24"/>
+      <c r="J442" s="24"/>
+    </row>
+    <row r="443" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C443" s="13"/>
+      <c r="D443" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="F423" s="24"/>
-      <c r="G423" s="24"/>
-      <c r="H423" s="24"/>
-      <c r="I423" s="24"/>
-      <c r="J423" s="24"/>
-    </row>
-    <row r="424" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="C424" s="13"/>
-      <c r="D424" s="12" t="s">
+      <c r="F443" s="24"/>
+      <c r="G443" s="24"/>
+      <c r="H443" s="24"/>
+      <c r="I443" s="24"/>
+      <c r="J443" s="24"/>
+    </row>
+    <row r="444" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B444" s="24"/>
+      <c r="C444" s="24"/>
+      <c r="D444" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="F424" s="24"/>
-      <c r="G424" s="24"/>
-      <c r="H424" s="24"/>
-      <c r="I424" s="24"/>
-      <c r="J424" s="24"/>
-    </row>
-    <row r="425" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="C425" s="13"/>
-      <c r="D425" s="12" t="s">
+      <c r="E444" s="24"/>
+      <c r="F444" s="24"/>
+      <c r="G444" s="24"/>
+      <c r="H444" s="24"/>
+      <c r="I444" s="24"/>
+      <c r="J444" s="24"/>
+      <c r="K444" s="24"/>
+      <c r="L444" s="24"/>
+      <c r="M444" s="24"/>
+      <c r="N444" s="24"/>
+      <c r="O444" s="24"/>
+    </row>
+    <row r="445" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B445" s="24"/>
+      <c r="C445" s="24"/>
+      <c r="D445" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="F425" s="24"/>
-      <c r="G425" s="24"/>
-      <c r="H425" s="24"/>
-      <c r="I425" s="24"/>
-      <c r="J425" s="24"/>
-    </row>
-    <row r="426" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="C426" s="13"/>
-      <c r="D426" s="12" t="s">
+      <c r="E445" s="24"/>
+      <c r="F445" s="24"/>
+      <c r="G445" s="24"/>
+      <c r="H445" s="24"/>
+      <c r="I445" s="24"/>
+      <c r="J445" s="24"/>
+      <c r="K445" s="24"/>
+      <c r="L445" s="24"/>
+      <c r="M445" s="24"/>
+      <c r="N445" s="24"/>
+      <c r="O445" s="24"/>
+    </row>
+    <row r="446" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B446" s="24"/>
+      <c r="C446" s="24"/>
+      <c r="D446" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="F426" s="24"/>
-      <c r="G426" s="24"/>
-      <c r="H426" s="24"/>
-      <c r="I426" s="24"/>
-      <c r="J426" s="24"/>
-    </row>
-    <row r="427" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="C427" s="13"/>
-      <c r="D427" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="F427" s="24"/>
-      <c r="G427" s="24"/>
-      <c r="H427" s="24"/>
-      <c r="I427" s="24"/>
-      <c r="J427" s="24"/>
-    </row>
-    <row r="428" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B428" s="24"/>
-      <c r="C428" s="24"/>
-      <c r="D428" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="E428" s="24"/>
-      <c r="F428" s="24"/>
-      <c r="G428" s="24"/>
-      <c r="H428" s="24"/>
-      <c r="I428" s="24"/>
-      <c r="J428" s="24"/>
-      <c r="K428" s="24"/>
-      <c r="L428" s="24"/>
-      <c r="M428" s="24"/>
-      <c r="N428" s="24"/>
-      <c r="O428" s="24"/>
-    </row>
-    <row r="429" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B429" s="24"/>
-      <c r="C429" s="24"/>
-      <c r="D429" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="E429" s="24"/>
-      <c r="F429" s="24"/>
-      <c r="G429" s="24"/>
-      <c r="H429" s="24"/>
-      <c r="I429" s="24"/>
-      <c r="J429" s="24"/>
-      <c r="K429" s="24"/>
-      <c r="L429" s="24"/>
-      <c r="M429" s="24"/>
-      <c r="N429" s="24"/>
-      <c r="O429" s="24"/>
-    </row>
-    <row r="430" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B430" s="24"/>
-      <c r="C430" s="24"/>
-      <c r="D430" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E430" s="24"/>
-      <c r="F430" s="24"/>
-      <c r="G430" s="24"/>
-      <c r="H430" s="24"/>
-      <c r="I430" s="24"/>
-      <c r="J430" s="24"/>
-      <c r="K430" s="24"/>
-      <c r="L430" s="24"/>
-      <c r="M430" s="24"/>
-      <c r="N430" s="24"/>
-      <c r="O430" s="24"/>
-    </row>
-    <row r="432" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="C432" s="13" t="s">
+      <c r="E446" s="24"/>
+      <c r="F446" s="24"/>
+      <c r="G446" s="24"/>
+      <c r="H446" s="24"/>
+      <c r="I446" s="24"/>
+      <c r="J446" s="24"/>
+      <c r="K446" s="24"/>
+      <c r="L446" s="24"/>
+      <c r="M446" s="24"/>
+      <c r="N446" s="24"/>
+      <c r="O446" s="24"/>
+    </row>
+    <row r="448" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C448" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="433" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D433" s="12" t="s">
+    <row r="449" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D449" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="N433" s="12" t="s">
+      <c r="N449" s="12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="448" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D448" s="12" t="s">
+    <row r="464" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D464" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="N448" s="12" t="s">
+      <c r="N464" s="12" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A481" s="14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B482" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B501" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B519" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B520" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B535" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B554" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B555" s="12" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -11170,7 +11638,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K98" location="_1_若钻石不足_弹出钻石充值二级确认框" display="钻石充值二级确认框快速通道"/>
+    <hyperlink ref="K100" location="_1_若钻石不足_弹出钻石充值二级确认框" display="钻石充值二级确认框快速通道"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11182,8 +11650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11193,7 +11661,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A1" s="62" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -11897,7 +12365,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A1" s="62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -11925,108 +12393,108 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" s="42" t="s">
         <v>323</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="42" t="s">
         <v>329</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="G4" s="45" t="s">
         <v>335</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="C5" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="D5" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="E5" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" s="44" t="s">
+      <c r="G5" s="46" t="s">
         <v>341</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="25" t="s">
         <v>349</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -12052,12 +12520,12 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G15" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G16" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -12074,8 +12542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -12090,70 +12558,70 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>368</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>369</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="D4" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="E4" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -12161,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -12170,7 +12638,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F5" s="12">
         <v>101</v>
@@ -12178,43 +12646,43 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E12" s="44"/>
     </row>
@@ -12223,39 +12691,39 @@
         <v>101</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -12263,7 +12731,7 @@
         <v>10001</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -12271,7 +12739,7 @@
         <v>10002</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -12282,10 +12750,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R384"/>
+  <dimension ref="A3:U396"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="Q279" sqref="Q279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -12732,12 +13200,12 @@
     </row>
     <row r="97" spans="6:13" x14ac:dyDescent="0.35">
       <c r="G97" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="98" spans="6:13" x14ac:dyDescent="0.35">
       <c r="G98" s="27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="6:13" x14ac:dyDescent="0.35">
@@ -13504,7 +13972,7 @@
     </row>
     <row r="231" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E231" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237" spans="5:11" x14ac:dyDescent="0.35">
@@ -13573,7 +14041,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="257" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="257" spans="7:21" x14ac:dyDescent="0.35">
       <c r="H257" s="26" t="s">
         <v>98</v>
       </c>
@@ -13581,7 +14049,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="258" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="258" spans="7:21" x14ac:dyDescent="0.35">
       <c r="H258" s="27" t="s">
         <v>101</v>
       </c>
@@ -13589,468 +14057,547 @@
         <v>66</v>
       </c>
     </row>
-    <row r="259" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="259" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G259" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="260" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="260" spans="7:21" x14ac:dyDescent="0.35">
       <c r="H260" s="19" t="s">
         <v>73</v>
       </c>
       <c r="I260" s="20"/>
       <c r="J260" s="20"/>
     </row>
-    <row r="261" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="261" spans="7:21" x14ac:dyDescent="0.35">
       <c r="H261" s="19"/>
       <c r="I261" s="12" t="s">
         <v>303</v>
       </c>
       <c r="J261" s="20"/>
     </row>
-    <row r="262" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="262" spans="7:21" x14ac:dyDescent="0.35">
       <c r="H262" s="19" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I262" s="20"/>
       <c r="J262" s="20"/>
     </row>
-    <row r="263" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="H263" s="19"/>
+    <row r="263" spans="7:21" x14ac:dyDescent="0.35">
       <c r="I263" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="J263" s="20"/>
+    </row>
+    <row r="264" spans="7:21" x14ac:dyDescent="0.35">
+      <c r="I264" s="20"/>
+      <c r="J264" s="20"/>
+    </row>
+    <row r="265" spans="7:21" x14ac:dyDescent="0.35">
+      <c r="I265" s="20"/>
+      <c r="J265" s="20"/>
+    </row>
+    <row r="266" spans="7:21" x14ac:dyDescent="0.35">
+      <c r="I266" s="20"/>
+      <c r="J266" s="20"/>
+      <c r="N266" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O266" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="267" spans="7:21" x14ac:dyDescent="0.35">
+      <c r="I267" s="20"/>
+      <c r="J267" s="20"/>
+    </row>
+    <row r="268" spans="7:21" x14ac:dyDescent="0.35">
+      <c r="I268" s="20"/>
+      <c r="J268" s="20"/>
+      <c r="N268" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O268" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="269" spans="7:21" x14ac:dyDescent="0.35">
+      <c r="I269" s="20"/>
+      <c r="J269" s="20"/>
+      <c r="N269" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O269" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="270" spans="7:21" x14ac:dyDescent="0.35">
+      <c r="I270" s="20"/>
+      <c r="J270" s="20"/>
+    </row>
+    <row r="271" spans="7:21" x14ac:dyDescent="0.35">
+      <c r="I271" s="20"/>
+      <c r="J271" s="20"/>
+      <c r="O271" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="P271" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="T271" s="25"/>
+      <c r="U271" s="25"/>
+    </row>
+    <row r="272" spans="7:21" x14ac:dyDescent="0.35">
+      <c r="I272" s="20"/>
+      <c r="J272" s="20"/>
+    </row>
+    <row r="273" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I273" s="20"/>
+      <c r="J273" s="20"/>
+    </row>
+    <row r="274" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="H274" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I274" s="20"/>
+      <c r="J274" s="20"/>
+    </row>
+    <row r="275" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="H275" s="19"/>
+      <c r="I275" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J263" s="23" t="s">
+      <c r="J275" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K263" s="23"/>
-    </row>
-    <row r="264" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="H264" s="19"/>
-      <c r="I264" s="20" t="s">
+      <c r="K275" s="23"/>
+    </row>
+    <row r="276" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="H276" s="19"/>
+      <c r="I276" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J264" s="23" t="s">
+      <c r="J276" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K264" s="23"/>
-    </row>
-    <row r="265" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="H265" s="19"/>
-      <c r="I265" s="20" t="s">
+      <c r="K276" s="23"/>
+    </row>
+    <row r="277" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="H277" s="19"/>
+      <c r="I277" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="J265" s="23" t="s">
+      <c r="J277" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K265" s="23"/>
-    </row>
-    <row r="267" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C267" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="271" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="I271" s="12" t="s">
+      <c r="K277" s="23"/>
+    </row>
+    <row r="279" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C279" s="13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="283" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I283" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="K271" s="12" t="s">
+      <c r="K283" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="273" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D273" s="12" t="s">
+    <row r="285" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D285" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="274" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D274" s="12" t="s">
+    <row r="286" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D286" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F274" s="12" t="s">
+      <c r="F286" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="275" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="F275" s="26" t="s">
+    <row r="287" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="F287" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G275" s="26" t="s">
+      <c r="G287" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="H275" s="26"/>
-    </row>
-    <row r="276" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="F276" s="27" t="s">
+      <c r="H287" s="26"/>
+    </row>
+    <row r="288" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="F288" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G276" s="22" t="s">
+      <c r="G288" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="277" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D277" s="12" t="s">
+    <row r="289" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D289" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F277" s="12" t="s">
+      <c r="F289" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="278" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="F278" s="26" t="s">
+    <row r="290" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="F290" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G278" s="26" t="s">
+      <c r="G290" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="279" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="F279" s="27" t="s">
+    <row r="291" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="F291" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G279" s="21" t="s">
+      <c r="G291" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="280" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D280" s="13" t="s">
+    <row r="292" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D292" s="13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="281" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E281" s="19" t="s">
+    <row r="293" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E293" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F281" s="20"/>
-      <c r="G281" s="20"/>
-    </row>
-    <row r="282" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E282" s="19"/>
-      <c r="F282" s="12" t="s">
+      <c r="F293" s="20"/>
+      <c r="G293" s="20"/>
+    </row>
+    <row r="294" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E294" s="19"/>
+      <c r="F294" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G282" s="20"/>
-    </row>
-    <row r="283" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E283" s="19" t="s">
+      <c r="G294" s="20"/>
+    </row>
+    <row r="295" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E295" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F283" s="20"/>
-      <c r="G283" s="20"/>
-    </row>
-    <row r="284" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E284" s="19"/>
-      <c r="F284" s="20" t="s">
+      <c r="F295" s="20"/>
+      <c r="G295" s="20"/>
+    </row>
+    <row r="296" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E296" s="19"/>
+      <c r="F296" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G284" s="23" t="s">
+      <c r="G296" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H284" s="23"/>
-    </row>
-    <row r="285" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E285" s="19"/>
-      <c r="F285" s="20" t="s">
+      <c r="H296" s="23"/>
+    </row>
+    <row r="297" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E297" s="19"/>
+      <c r="F297" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G285" s="23" t="s">
+      <c r="G297" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H285" s="23"/>
-    </row>
-    <row r="286" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E286" s="19"/>
-      <c r="F286" s="20" t="s">
+      <c r="H297" s="23"/>
+    </row>
+    <row r="298" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E298" s="19"/>
+      <c r="F298" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G286" s="23" t="s">
+      <c r="G298" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H286" s="23"/>
-    </row>
-    <row r="287" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B287" s="13" t="s">
+      <c r="H298" s="23"/>
+    </row>
+    <row r="299" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B299" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="288" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C288" s="12" t="s">
+    <row r="300" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C300" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="M288" s="12" t="s">
+      <c r="M300" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="303" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C303" s="12" t="s">
+    <row r="315" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C315" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="M303" s="12" t="s">
+      <c r="M315" s="12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" s="13"/>
-      <c r="B320" s="40" t="s">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A331" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A332" s="13"/>
+      <c r="B332" s="40" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H324" s="12" t="s">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H336" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H327" s="12" t="s">
+    <row r="339" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H339" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C332" s="12" t="s">
+    <row r="344" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C344" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E332" s="12" t="s">
+      <c r="E344" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B334" s="13" t="s">
+    <row r="346" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B346" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C335" s="12" t="s">
+    <row r="347" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C347" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B336" s="13" t="s">
+    <row r="348" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B348" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C337" s="12" t="s">
+    <row r="349" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C349" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B338" s="13" t="s">
+    <row r="350" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B350" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C339" s="12" t="s">
+    <row r="351" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C351" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D339" s="12" t="s">
+      <c r="D351" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D340" s="12" t="s">
+    <row r="352" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D352" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C341" s="12" t="s">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C353" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C342" s="26" t="s">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C354" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D342" s="26" t="s">
+      <c r="D354" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E342" s="26"/>
-    </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B343" s="13" t="s">
+      <c r="E354" s="26"/>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B355" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C344" s="12" t="s">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C356" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E348" s="12" t="s">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E360" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F348" s="12" t="s">
+      <c r="F360" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D349" s="12" t="s">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D361" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B350" s="13" t="s">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B362" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C351" s="12" t="s">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C363" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B352" s="13" t="s">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B364" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C353" s="19" t="s">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C365" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D353" s="20"/>
-      <c r="E353" s="20"/>
-    </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C354" s="19"/>
-      <c r="D354" s="12" t="s">
+      <c r="D365" s="20"/>
+      <c r="E365" s="20"/>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C366" s="19"/>
+      <c r="D366" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E354" s="20"/>
-    </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C355" s="19" t="s">
+      <c r="E366" s="20"/>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C367" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D355" s="20"/>
-      <c r="E355" s="20"/>
-    </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C356" s="19"/>
-      <c r="D356" s="20" t="s">
+      <c r="D367" s="20"/>
+      <c r="E367" s="20"/>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C368" s="19"/>
+      <c r="D368" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E356" s="23" t="s">
+      <c r="E368" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F356" s="23"/>
-    </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C357" s="19"/>
-      <c r="D357" s="20" t="s">
+      <c r="F368" s="23"/>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C369" s="19"/>
+      <c r="D369" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E357" s="23" t="s">
+      <c r="E369" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F357" s="23"/>
-    </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C358" s="19"/>
-      <c r="D358" s="20" t="s">
+      <c r="F369" s="23"/>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C370" s="19"/>
+      <c r="D370" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E358" s="23" t="s">
+      <c r="E370" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F358" s="23"/>
-    </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B360" s="40" t="s">
+      <c r="F370" s="23"/>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B372" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="C360" s="40"/>
-      <c r="D360" s="40"/>
-      <c r="E360" s="40"/>
-      <c r="F360" s="40"/>
-    </row>
-    <row r="372" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B372" s="12" t="s">
+      <c r="C372" s="40"/>
+      <c r="D372" s="40"/>
+      <c r="E372" s="40"/>
+      <c r="F372" s="40"/>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B384" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="373" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C373" s="12" t="s">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C385" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="374" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D374" s="12" t="s">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D386" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E374" s="12" t="s">
+      <c r="E386" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="375" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E375" s="12" t="s">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E387" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="377" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C377" s="12" t="s">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C389" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="378" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C378" s="13" t="s">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C390" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="379" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D379" s="19" t="s">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D391" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E379" s="20"/>
-      <c r="F379" s="20"/>
-    </row>
-    <row r="380" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D380" s="19"/>
-      <c r="E380" s="12" t="s">
+      <c r="E391" s="20"/>
+      <c r="F391" s="20"/>
+    </row>
+    <row r="392" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D392" s="19"/>
+      <c r="E392" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="F380" s="20"/>
-    </row>
-    <row r="381" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D381" s="19" t="s">
+      <c r="F392" s="20"/>
+    </row>
+    <row r="393" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D393" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E381" s="20"/>
-      <c r="F381" s="20"/>
-    </row>
-    <row r="382" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D382" s="19"/>
-      <c r="E382" s="20" t="s">
+      <c r="E393" s="20"/>
+      <c r="F393" s="20"/>
+    </row>
+    <row r="394" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D394" s="19"/>
+      <c r="E394" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F382" s="23" t="s">
+      <c r="F394" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G382" s="23"/>
-    </row>
-    <row r="383" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D383" s="19"/>
-      <c r="E383" s="20" t="s">
+      <c r="G394" s="23"/>
+    </row>
+    <row r="395" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D395" s="19"/>
+      <c r="E395" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F383" s="23" t="s">
+      <c r="F395" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G383" s="23"/>
-    </row>
-    <row r="384" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D384" s="19"/>
-      <c r="E384" s="20" t="s">
+      <c r="G395" s="23"/>
+    </row>
+    <row r="396" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D396" s="19"/>
+      <c r="E396" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F384" s="23" t="s">
+      <c r="F396" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G384" s="23"/>
+      <c r="G396" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
